--- a/GATEWAY/A1#111ACTASERVICESRL/ACTA_Service_srl/ACTALAB/5.48.1660/report-checklist.xlsx
+++ b/GATEWAY/A1#111ACTASERVICESRL/ACTA_Service_srl/ACTALAB/5.48.1660/report-checklist.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$28</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="147">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -602,24 +602,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.c5ea325ff28af8251b086369806566bac5ef1ea6ebad266dd969fa92de323cc5.19b0d68b7e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>28781d53ef353dac</t>
-  </si>
-  <si>
-    <t>2023-07-12T11:26:08Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.731eb3dfe0ef55ff5775f4749cb10e6588ddc1f0b7551779011413b284cf0491.1e4de7dfc8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-07-22T11:21:34Z</t>
   </si>
   <si>
@@ -656,42 +638,6 @@
     <t>Correzione dei dati inseriti nel campo errato, a seconda del tipo di errore dal personale autorizzato</t>
   </si>
   <si>
-    <t>2023-07-24T07:20:12Z</t>
-  </si>
-  <si>
-    <t>52cc339361008fd6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.c5ea325ff28af8251b086369806566bac5ef1ea6ebad266dd969fa92de323cc5.1e36a5844b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-07-24T07:25:17Z</t>
-  </si>
-  <si>
-    <t>554d2a99f11652c5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.c5ea325ff28af8251b086369806566bac5ef1ea6ebad266dd969fa92de323cc5.bda1066b12^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-07-24T07:31:20Z</t>
-  </si>
-  <si>
-    <t>8cf26abe3d70c8eb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.c5ea325ff28af8251b086369806566bac5ef1ea6ebad266dd969fa92de323cc5.85cc1288cb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-07-24T08:17:25Z</t>
-  </si>
-  <si>
-    <t>15b4da70724851e9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.c5ea325ff28af8251b086369806566bac5ef1ea6ebad266dd969fa92de323cc5.fc33d3f3bd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>ACTALAB effettua un controllo sui dati che vengono passati per creare il documento CDA2, non si arriverà mai all'invocazione del gateway se c'è un dato obbligatorio mancante. In questo caso particolare essendo il campo ClinicalDocument/recordTarget/patientRole/addr facoltativo, per cui in caso di campi mancati il documento CDA2 può essere generato lo stesso.</t>
   </si>
   <si>
@@ -699,51 +645,6 @@
   </si>
   <si>
     <t>La risposta che riceve dal Gateway</t>
-  </si>
-  <si>
-    <t>2023-07-24T09:06:30Z</t>
-  </si>
-  <si>
-    <t>be7d331bcb23253e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.c5ea325ff28af8251b086369806566bac5ef1ea6ebad266dd969fa92de323cc5.36e5e559f4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-07-24T09:09:49Z</t>
-  </si>
-  <si>
-    <t>aa7d8ec253c55c02</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.c5ea325ff28af8251b086369806566bac5ef1ea6ebad266dd969fa92de323cc5.657dca84f9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-07-24T09:13:58Z</t>
-  </si>
-  <si>
-    <t>3c24a373323f5156</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.c5ea325ff28af8251b086369806566bac5ef1ea6ebad266dd969fa92de323cc5.333803ca68^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-07-24T09:22:05Z</t>
-  </si>
-  <si>
-    <t>f5921a09e5e986d1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.c5ea325ff28af8251b086369806566bac5ef1ea6ebad266dd969fa92de323cc5.04779c8427^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-07-24T09:28:00Z</t>
-  </si>
-  <si>
-    <t>26421ef4c289526c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.c5ea325ff28af8251b086369806566bac5ef1ea6ebad266dd969fa92de323cc5.cbdef770a5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Il campo Sesso ha valori predefiniti nel nostro gestionale, per cui non possono venire tradotti con valori non accettati dalle specifiche CDA2. ELEMENTO SIMULATO AI SOLI FINI DEL TEST</t>
@@ -779,31 +680,10 @@
     <t>Le specialità vengono associate alle codifiche LOINC che sono preimpostate e sono solamente quelle previste dalle specifiche CDA2. ELEMENTO SIMULATO AI SOLI FINI DEL TEST</t>
   </si>
   <si>
-    <t>2023-07-22T09:12:44Z</t>
-  </si>
-  <si>
-    <t>4caa63ecff160973</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.079f972b749dd87b4bb288084e426ad176df919bbbb202d35f156ce1a71c5fc7.483ddbff39^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Le tipologie di campione sono associate alle codifiche accettate dalle specifiche CDA2, questo caso è particolare in quanto il campo, da specifiche, non è obbligatorio, quindi al più il campo risulterà mancante ma mai con valori non coerenti. ELEMENTO SIMULATO AI SOLI FINI DEL TEST</t>
   </si>
   <si>
-    <t>2023-07-24T09:35:03Z</t>
-  </si>
-  <si>
-    <t>eaf0cc2c32ee67fa</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.559d2ee1a454d00c694a2ce32d349401dd12db681dca7983da1d4e5d507bf2f9.6454f214a5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Nel gestionale quando si crea un qualunque esame o test, ci sarà sempre una codifica associata. ELEMENTO SIMULATO AI SOLI FINI DEL TEST</t>
-  </si>
-  <si>
-    <t>Pasaggio effettuato ai soli fini di prove di validità di connessione</t>
   </si>
 </sst>
 </file>
@@ -2899,18 +2779,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T874"/>
+  <dimension ref="A1:T873"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" style="23" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
@@ -3185,7 +3065,7 @@
     </row>
     <row r="10" spans="1:20" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>40</v>
@@ -3194,29 +3074,27 @@
         <v>41</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F10" s="35">
-        <v>45119</v>
+        <v>45128</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>185</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="K10" s="37"/>
       <c r="L10" s="37"/>
       <c r="M10" s="37"/>
       <c r="N10" s="37"/>
@@ -3229,9 +3107,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>40</v>
@@ -3240,22 +3118,22 @@
         <v>41</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="F11" s="35">
         <v>45128</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J11" s="37" t="s">
         <v>43</v>
@@ -3275,7 +3153,7 @@
     </row>
     <row r="12" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>40</v>
@@ -3284,22 +3162,22 @@
         <v>41</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F12" s="35">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J12" s="37" t="s">
         <v>43</v>
@@ -3319,7 +3197,7 @@
     </row>
     <row r="13" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>40</v>
@@ -3328,22 +3206,22 @@
         <v>41</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="35">
-        <v>45129</v>
+        <v>45130</v>
       </c>
       <c r="G13" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="36" t="s">
         <v>124</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>126</v>
       </c>
       <c r="J13" s="37" t="s">
         <v>43</v>
@@ -3363,7 +3241,7 @@
     </row>
     <row r="14" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>40</v>
@@ -3372,22 +3250,22 @@
         <v>41</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F14" s="35">
-        <v>45130</v>
+        <v>45131</v>
       </c>
       <c r="G14" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="36" t="s">
         <v>127</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>129</v>
       </c>
       <c r="J14" s="37" t="s">
         <v>43</v>
@@ -3405,9 +3283,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>40</v>
@@ -3416,42 +3294,46 @@
         <v>41</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="35">
-        <v>45131</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>132</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
+      <c r="M15" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="37" t="s">
+        <v>129</v>
+      </c>
       <c r="Q15" s="37"/>
       <c r="R15" s="40"/>
       <c r="S15" s="38"/>
       <c r="T15" s="41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>40</v>
@@ -3460,10 +3342,10 @@
         <v>41</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="36"/>
@@ -3473,7 +3355,7 @@
         <v>55</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="L16" s="37" t="s">
         <v>43</v>
@@ -3482,13 +3364,13 @@
         <v>43</v>
       </c>
       <c r="N16" s="37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O16" s="37" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="P16" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="37"/>
       <c r="R16" s="40"/>
@@ -3497,9 +3379,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>40</v>
@@ -3508,35 +3390,35 @@
         <v>41</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="37" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="L17" s="37" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M17" s="37" t="s">
         <v>43</v>
       </c>
       <c r="N17" s="37" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="O17" s="37" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="P17" s="37" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="37"/>
       <c r="R17" s="40"/>
@@ -3545,9 +3427,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>40</v>
@@ -3556,10 +3438,10 @@
         <v>41</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="36"/>
@@ -3569,23 +3451,15 @@
         <v>55</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="L18" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="M18" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="N18" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="O18" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="37" t="s">
-        <v>63</v>
-      </c>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
       <c r="R18" s="40"/>
       <c r="S18" s="38"/>
@@ -3595,7 +3469,7 @@
     </row>
     <row r="19" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>40</v>
@@ -3604,28 +3478,20 @@
         <v>41</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="35">
-        <v>45131</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>138</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
       <c r="J19" s="37" t="s">
         <v>55</v>
       </c>
       <c r="K19" s="37" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="L19" s="37"/>
       <c r="M19" s="37" t="s">
@@ -3643,7 +3509,7 @@
     </row>
     <row r="20" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>40</v>
@@ -3652,28 +3518,20 @@
         <v>41</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="35">
-        <v>45131</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>141</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
       <c r="J20" s="37" t="s">
         <v>55</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="37" t="s">
@@ -3689,9 +3547,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>40</v>
@@ -3700,35 +3558,33 @@
         <v>41</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="35">
-        <v>45131</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>144</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="K21" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="L21" s="37"/>
+      <c r="K21" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>43</v>
+      </c>
       <c r="M21" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
+        <v>132</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="O21" s="37" t="s">
+        <v>132</v>
+      </c>
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
       <c r="R21" s="40"/>
@@ -3737,9 +3593,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>40</v>
@@ -3748,41 +3604,27 @@
         <v>41</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="35">
-        <v>45131</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>147</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
       <c r="J22" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="L22" s="37" t="s">
-        <v>43</v>
-      </c>
+      <c r="K22" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22" s="37"/>
       <c r="M22" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="N22" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="O22" s="37" t="s">
-        <v>149</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
       <c r="R22" s="40"/>
@@ -3793,7 +3635,7 @@
     </row>
     <row r="23" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>40</v>
@@ -3802,28 +3644,20 @@
         <v>41</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="35">
-        <v>45131</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>153</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="37" t="s">
         <v>55</v>
       </c>
       <c r="K23" s="37" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="L23" s="37"/>
       <c r="M23" s="37" t="s">
@@ -3841,7 +3675,7 @@
     </row>
     <row r="24" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="32">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>40</v>
@@ -3850,28 +3684,20 @@
         <v>41</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="35">
-        <v>45131</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="H24" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>156</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
       <c r="J24" s="37" t="s">
         <v>55</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="L24" s="37"/>
       <c r="M24" s="37" t="s">
@@ -3889,7 +3715,7 @@
     </row>
     <row r="25" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="32">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>40</v>
@@ -3898,28 +3724,20 @@
         <v>41</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="35">
-        <v>45131</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="I25" s="36" t="s">
-        <v>159</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="37" t="s">
         <v>55</v>
       </c>
       <c r="K25" s="37" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="37" t="s">
@@ -3937,7 +3755,7 @@
     </row>
     <row r="26" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="33" t="s">
         <v>40</v>
@@ -3946,28 +3764,20 @@
         <v>41</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="35">
-        <v>45131</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="I26" s="36" t="s">
-        <v>162</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
       <c r="J26" s="37" t="s">
         <v>55</v>
       </c>
       <c r="K26" s="37" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="L26" s="37"/>
       <c r="M26" s="37" t="s">
@@ -3983,9 +3793,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="32">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>40</v>
@@ -3994,28 +3804,20 @@
         <v>41</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="35">
-        <v>45131</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>165</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
       <c r="J27" s="37" t="s">
         <v>55</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="L27" s="37"/>
       <c r="M27" s="37" t="s">
@@ -4031,9 +3833,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="32">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>40</v>
@@ -4042,28 +3844,20 @@
         <v>41</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="35">
-        <v>45129</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>179</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="37" t="s">
         <v>55</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="L28" s="37"/>
       <c r="M28" s="37" t="s">
@@ -4079,53 +3873,27 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
-        <v>62</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="35">
-        <v>45131</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="J29" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="41" t="s">
-        <v>57</v>
-      </c>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="25"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
@@ -4193,12 +3961,7 @@
       <c r="S32" s="26"/>
       <c r="T32" s="25"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
+    <row r="33" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
@@ -4215,7 +3978,7 @@
       <c r="S33" s="26"/>
       <c r="T33" s="25"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
@@ -4232,7 +3995,7 @@
       <c r="S34" s="26"/>
       <c r="T34" s="25"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
@@ -4249,7 +4012,7 @@
       <c r="S35" s="26"/>
       <c r="T35" s="25"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
       <c r="H36" s="24"/>
@@ -4266,7 +4029,7 @@
       <c r="S36" s="26"/>
       <c r="T36" s="25"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
@@ -4283,7 +4046,7 @@
       <c r="S37" s="26"/>
       <c r="T37" s="25"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
@@ -4300,7 +4063,7 @@
       <c r="S38" s="26"/>
       <c r="T38" s="25"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
@@ -4317,7 +4080,7 @@
       <c r="S39" s="26"/>
       <c r="T39" s="25"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
@@ -4334,7 +4097,7 @@
       <c r="S40" s="26"/>
       <c r="T40" s="25"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
@@ -4351,7 +4114,7 @@
       <c r="S41" s="26"/>
       <c r="T41" s="25"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
@@ -4368,7 +4131,7 @@
       <c r="S42" s="26"/>
       <c r="T42" s="25"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
@@ -4385,7 +4148,7 @@
       <c r="S43" s="26"/>
       <c r="T43" s="25"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
@@ -4402,7 +4165,7 @@
       <c r="S44" s="26"/>
       <c r="T44" s="25"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
@@ -4419,7 +4182,7 @@
       <c r="S45" s="26"/>
       <c r="T45" s="25"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
@@ -4436,7 +4199,7 @@
       <c r="S46" s="26"/>
       <c r="T46" s="25"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
@@ -4453,7 +4216,7 @@
       <c r="S47" s="26"/>
       <c r="T47" s="25"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
@@ -18495,25 +18258,8 @@
       <c r="S873" s="26"/>
       <c r="T873" s="25"/>
     </row>
-    <row r="874" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F874" s="24"/>
-      <c r="G874" s="24"/>
-      <c r="H874" s="24"/>
-      <c r="I874" s="24"/>
-      <c r="J874" s="25"/>
-      <c r="K874" s="25"/>
-      <c r="L874" s="25"/>
-      <c r="M874" s="25"/>
-      <c r="N874" s="25"/>
-      <c r="O874" s="25"/>
-      <c r="P874" s="25"/>
-      <c r="Q874" s="25"/>
-      <c r="R874" s="39"/>
-      <c r="S874" s="26"/>
-      <c r="T874" s="25"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A9:T29"/>
+  <autoFilter ref="A9:T28"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -18528,23 +18274,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>O1:O8 L1:M8 L10:M1048576 O10:O1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J10:J148</xm:sqref>
+          <xm:sqref>J10:J147</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q10:Q148</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet1!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>O10:O1048576 O1:O8 L1:M8 L10:M1048576</xm:sqref>
+          <xm:sqref>Q10:Q147</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -20713,6 +20459,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20943,27 +20709,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6395DAD-5B77-46ED-9147-4C5A384B6E5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20980,29 +20751,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111ACTASERVICESRL/ACTA_Service_srl/ACTALAB/5.48.1660/report-checklist.xlsx
+++ b/GATEWAY/A1#111ACTASERVICESRL/ACTA_Service_srl/ACTALAB/5.48.1660/report-checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -602,24 +602,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.c5ea325ff28af8251b086369806566bac5ef1ea6ebad266dd969fa92de323cc5.19b0d68b7e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-07-22T11:21:34Z</t>
-  </si>
-  <si>
-    <t>66c4fbb07ffe0aaf</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.079f972b749dd87b4bb288084e426ad176df919bbbb202d35f156ce1a71c5fc7.d440189303^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-07-23T23:05:55Z</t>
-  </si>
-  <si>
-    <t>a16cf475d0578b53</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.559d2ee1a454d00c694a2ce32d349401dd12db681dca7983da1d4e5d507bf2f9.8a6b8383a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-07-24T08:10:57Z</t>
   </si>
   <si>
@@ -684,6 +666,24 @@
   </si>
   <si>
     <t>Nel gestionale quando si crea un qualunque esame o test, ci sarà sempre una codifica associata. ELEMENTO SIMULATO AI SOLI FINI DEL TEST</t>
+  </si>
+  <si>
+    <t>2023-07-29T21:36:34Z</t>
+  </si>
+  <si>
+    <t>7bd27d2820113ec7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.079f972b749dd87b4bb288084e426ad176df919bbbb202d35f156ce1a71c5fc7.822c8dae7c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-29T21:43:55Z</t>
+  </si>
+  <si>
+    <t>332f0fef6878ba24</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.559d2ee1a454d00c694a2ce32d349401dd12db681dca7983da1d4e5d507bf2f9.982fdd2382^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2781,11 +2781,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T873"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18:I28"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3168,16 +3168,16 @@
         <v>48</v>
       </c>
       <c r="F12" s="35">
-        <v>45129</v>
+        <v>45136</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="J12" s="37" t="s">
         <v>43</v>
@@ -3212,16 +3212,16 @@
         <v>50</v>
       </c>
       <c r="F13" s="35">
-        <v>45130</v>
+        <v>45136</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="J13" s="37" t="s">
         <v>43</v>
@@ -3259,13 +3259,13 @@
         <v>45131</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J14" s="37" t="s">
         <v>43</v>
@@ -3307,7 +3307,7 @@
         <v>55</v>
       </c>
       <c r="K15" s="37" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L15" s="37" t="s">
         <v>43</v>
@@ -3322,7 +3322,7 @@
         <v>55</v>
       </c>
       <c r="P15" s="37" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="Q15" s="37"/>
       <c r="R15" s="40"/>
@@ -3355,7 +3355,7 @@
         <v>55</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L16" s="37" t="s">
         <v>43</v>
@@ -3370,7 +3370,7 @@
         <v>43</v>
       </c>
       <c r="P16" s="37" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="37"/>
       <c r="R16" s="40"/>
@@ -3403,7 +3403,7 @@
         <v>55</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L17" s="37" t="s">
         <v>55</v>
@@ -3412,7 +3412,7 @@
         <v>43</v>
       </c>
       <c r="N17" s="37" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O17" s="37" t="s">
         <v>55</v>
@@ -3451,7 +3451,7 @@
         <v>55</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L18" s="37"/>
       <c r="M18" s="37" t="s">
@@ -3491,7 +3491,7 @@
         <v>55</v>
       </c>
       <c r="K19" s="37" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L19" s="37"/>
       <c r="M19" s="37" t="s">
@@ -3531,7 +3531,7 @@
         <v>55</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="37" t="s">
@@ -3571,19 +3571,19 @@
         <v>55</v>
       </c>
       <c r="K21" s="43" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L21" s="37" t="s">
         <v>43</v>
       </c>
       <c r="M21" s="37" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="N21" s="37" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="O21" s="37" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
@@ -3617,7 +3617,7 @@
         <v>55</v>
       </c>
       <c r="K22" s="37" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L22" s="37"/>
       <c r="M22" s="37" t="s">
@@ -3657,7 +3657,7 @@
         <v>55</v>
       </c>
       <c r="K23" s="37" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L23" s="37"/>
       <c r="M23" s="37" t="s">
@@ -3697,7 +3697,7 @@
         <v>55</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L24" s="37"/>
       <c r="M24" s="37" t="s">
@@ -3737,7 +3737,7 @@
         <v>55</v>
       </c>
       <c r="K25" s="37" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="37" t="s">
@@ -3777,7 +3777,7 @@
         <v>55</v>
       </c>
       <c r="K26" s="37" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L26" s="37"/>
       <c r="M26" s="37" t="s">
@@ -3817,7 +3817,7 @@
         <v>55</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L27" s="37"/>
       <c r="M27" s="37" t="s">
@@ -3857,7 +3857,7 @@
         <v>55</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L28" s="37"/>
       <c r="M28" s="37" t="s">
@@ -18302,7 +18302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -20459,26 +20459,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20709,32 +20689,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6395DAD-5B77-46ED-9147-4C5A384B6E5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20751,4 +20726,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111ACTASERVICESRL/ACTA_Service_srl/ACTALAB/5.48.1660/report-checklist.xlsx
+++ b/GATEWAY/A1#111ACTASERVICESRL/ACTA_Service_srl/ACTALAB/5.48.1660/report-checklist.xlsx
@@ -677,13 +677,13 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.079f972b749dd87b4bb288084e426ad176df919bbbb202d35f156ce1a71c5fc7.822c8dae7c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-07-29T21:43:55Z</t>
+    <t>2023-07-31T19:08:55Z</t>
   </si>
   <si>
-    <t>332f0fef6878ba24</t>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.559d2ee1a454d00c694a2ce32d349401dd12db681dca7983da1d4e5d507bf2f9.2606a12e0b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.559d2ee1a454d00c694a2ce32d349401dd12db681dca7983da1d4e5d507bf2f9.982fdd2382^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>86f9b4553d6e13f3</t>
   </si>
 </sst>
 </file>
@@ -2782,10 +2782,10 @@
   <dimension ref="A1:T873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3212,16 +3212,16 @@
         <v>50</v>
       </c>
       <c r="F13" s="35">
-        <v>45136</v>
+        <v>45138</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>144</v>
       </c>
       <c r="H13" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="36" t="s">
         <v>145</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>146</v>
       </c>
       <c r="J13" s="37" t="s">
         <v>43</v>
@@ -20459,6 +20459,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20689,27 +20709,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6395DAD-5B77-46ED-9147-4C5A384B6E5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20726,29 +20751,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111ACTASERVICESRL/ACTA_Service_srl/ACTALAB/5.48.1660/report-checklist.xlsx
+++ b/GATEWAY/A1#111ACTASERVICESRL/ACTA_Service_srl/ACTALAB/5.48.1660/report-checklist.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="140">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -355,9 +355,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Errore nella configurazione del FSE2.0: campi obbligatori mancanti</t>
-  </si>
-  <si>
     <t>KO</t>
   </si>
   <si>
@@ -410,17 +407,11 @@
     </r>
   </si>
   <si>
-    <t>Errore creazione del token: {GATEWAY_MESSAGE}</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_LAB_TIMEOUT</t>
   </si>
   <si>
     <t xml:space="preserve">
 Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
-  </si>
-  <si>
-    <t>L'utente può effettuare il reinvio al momento oppure in un secondo momento</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_CT6_KO</t>
@@ -611,22 +602,7 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.a5171984a89a5d7ecf947766cc42866f4f35bcbd6abe69d78ed504f3764ad014.fa8a897b2b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>Errore di connessione. Riprovare più tardi?</t>
-  </si>
-  <si>
-    <t>Il personale autorizzato può inserire i campi mancanti</t>
-  </si>
-  <si>
-    <t>Correzione dei dati inseriti nel campo errato, a seconda del tipo di errore dal personale autorizzato</t>
-  </si>
-  <si>
     <t>ACTALAB effettua un controllo sui dati che vengono passati per creare il documento CDA2, non si arriverà mai all'invocazione del gateway se c'è un dato obbligatorio mancante. In questo caso particolare essendo il campo ClinicalDocument/recordTarget/patientRole/addr facoltativo, per cui in caso di campi mancati il documento CDA2 può essere generato lo stesso.</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>La risposta che riceve dal Gateway</t>
   </si>
   <si>
     <t>Il campo Sesso ha valori predefiniti nel nostro gestionale, per cui non possono venire tradotti con valori non accettati dalle specifiche CDA2. ELEMENTO SIMULATO AI SOLI FINI DEL TEST</t>
@@ -684,6 +660,9 @@
   </si>
   <si>
     <t>86f9b4553d6e13f3</t>
+  </si>
+  <si>
+    <t>"ACTALAB errore di connessione al SERVER, riprovare più tardi". L'utente può effettuare il reinvio in un secondo momento</t>
   </si>
 </sst>
 </file>
@@ -2782,10 +2761,10 @@
   <dimension ref="A1:T873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2841,7 +2820,7 @@
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D2" s="51"/>
       <c r="E2" s="45"/>
@@ -2867,7 +2846,7 @@
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="59" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D3" s="51"/>
       <c r="E3" s="45"/>
@@ -2891,7 +2870,7 @@
       <c r="A4" s="55"/>
       <c r="B4" s="56"/>
       <c r="C4" s="59" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D4" s="51"/>
       <c r="E4" s="27"/>
@@ -2915,7 +2894,7 @@
       <c r="A5" s="57"/>
       <c r="B5" s="58"/>
       <c r="C5" s="59" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D5" s="51"/>
       <c r="E5" s="45"/>
@@ -3077,19 +3056,19 @@
         <v>42</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F10" s="35">
         <v>45128</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J10" s="37" t="s">
         <v>43</v>
@@ -3127,13 +3106,13 @@
         <v>45128</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J11" s="37" t="s">
         <v>43</v>
@@ -3171,13 +3150,13 @@
         <v>45136</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J12" s="37" t="s">
         <v>43</v>
@@ -3215,13 +3194,13 @@
         <v>45138</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J13" s="37" t="s">
         <v>43</v>
@@ -3259,13 +3238,13 @@
         <v>45131</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J14" s="37" t="s">
         <v>43</v>
@@ -3307,28 +3286,18 @@
         <v>55</v>
       </c>
       <c r="K15" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="O15" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>123</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
       <c r="R15" s="40"/>
       <c r="S15" s="38"/>
       <c r="T15" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3342,10 +3311,10 @@
         <v>41</v>
       </c>
       <c r="D16" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>58</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>59</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="36"/>
@@ -3355,31 +3324,21 @@
         <v>55</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="L16" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="N16" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="O16" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="P16" s="37" t="s">
         <v>124</v>
       </c>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
       <c r="R16" s="40"/>
       <c r="S16" s="38"/>
       <c r="T16" s="41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32">
         <v>44</v>
       </c>
@@ -3390,10 +3349,10 @@
         <v>41</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="36"/>
@@ -3403,28 +3362,20 @@
         <v>55</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="N17" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="O17" s="37" t="s">
-        <v>55</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
       <c r="P17" s="37" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="Q17" s="37"/>
       <c r="R17" s="40"/>
       <c r="S17" s="38"/>
       <c r="T17" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3438,10 +3389,10 @@
         <v>41</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="36"/>
@@ -3451,12 +3402,10 @@
         <v>55</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L18" s="37"/>
-      <c r="M18" s="37" t="s">
-        <v>55</v>
-      </c>
+      <c r="M18" s="37"/>
       <c r="N18" s="37"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
@@ -3464,7 +3413,7 @@
       <c r="R18" s="40"/>
       <c r="S18" s="38"/>
       <c r="T18" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3478,10 +3427,10 @@
         <v>41</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="36"/>
@@ -3491,12 +3440,10 @@
         <v>55</v>
       </c>
       <c r="K19" s="37" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L19" s="37"/>
-      <c r="M19" s="37" t="s">
-        <v>55</v>
-      </c>
+      <c r="M19" s="37"/>
       <c r="N19" s="37"/>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
@@ -3504,7 +3451,7 @@
       <c r="R19" s="40"/>
       <c r="S19" s="38"/>
       <c r="T19" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3518,10 +3465,10 @@
         <v>41</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="36"/>
@@ -3531,12 +3478,10 @@
         <v>55</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L20" s="37"/>
-      <c r="M20" s="37" t="s">
-        <v>55</v>
-      </c>
+      <c r="M20" s="37"/>
       <c r="N20" s="37"/>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
@@ -3544,7 +3489,7 @@
       <c r="R20" s="40"/>
       <c r="S20" s="38"/>
       <c r="T20" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3558,10 +3503,10 @@
         <v>41</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="36"/>
@@ -3571,26 +3516,18 @@
         <v>55</v>
       </c>
       <c r="K21" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="L21" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="N21" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="O21" s="37" t="s">
-        <v>126</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
       <c r="R21" s="40"/>
       <c r="S21" s="38"/>
       <c r="T21" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3604,10 +3541,10 @@
         <v>41</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="36"/>
@@ -3617,12 +3554,10 @@
         <v>55</v>
       </c>
       <c r="K22" s="37" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="L22" s="37"/>
-      <c r="M22" s="37" t="s">
-        <v>55</v>
-      </c>
+      <c r="M22" s="37"/>
       <c r="N22" s="37"/>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
@@ -3630,7 +3565,7 @@
       <c r="R22" s="40"/>
       <c r="S22" s="38"/>
       <c r="T22" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3644,10 +3579,10 @@
         <v>41</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="36"/>
@@ -3657,12 +3592,10 @@
         <v>55</v>
       </c>
       <c r="K23" s="37" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L23" s="37"/>
-      <c r="M23" s="37" t="s">
-        <v>55</v>
-      </c>
+      <c r="M23" s="37"/>
       <c r="N23" s="37"/>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
@@ -3670,7 +3603,7 @@
       <c r="R23" s="40"/>
       <c r="S23" s="38"/>
       <c r="T23" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3684,10 +3617,10 @@
         <v>41</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="36"/>
@@ -3697,12 +3630,10 @@
         <v>55</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L24" s="37"/>
-      <c r="M24" s="37" t="s">
-        <v>55</v>
-      </c>
+      <c r="M24" s="37"/>
       <c r="N24" s="37"/>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
@@ -3710,7 +3641,7 @@
       <c r="R24" s="40"/>
       <c r="S24" s="38"/>
       <c r="T24" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3724,10 +3655,10 @@
         <v>41</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="36"/>
@@ -3737,12 +3668,10 @@
         <v>55</v>
       </c>
       <c r="K25" s="37" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="L25" s="37"/>
-      <c r="M25" s="37" t="s">
-        <v>55</v>
-      </c>
+      <c r="M25" s="37"/>
       <c r="N25" s="37"/>
       <c r="O25" s="37"/>
       <c r="P25" s="37"/>
@@ -3750,7 +3679,7 @@
       <c r="R25" s="40"/>
       <c r="S25" s="38"/>
       <c r="T25" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3764,10 +3693,10 @@
         <v>41</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="36"/>
@@ -3777,12 +3706,10 @@
         <v>55</v>
       </c>
       <c r="K26" s="37" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
-        <v>55</v>
-      </c>
+      <c r="M26" s="37"/>
       <c r="N26" s="37"/>
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
@@ -3790,7 +3717,7 @@
       <c r="R26" s="40"/>
       <c r="S26" s="38"/>
       <c r="T26" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3804,10 +3731,10 @@
         <v>41</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="36"/>
@@ -3817,12 +3744,10 @@
         <v>55</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="L27" s="37"/>
-      <c r="M27" s="37" t="s">
-        <v>55</v>
-      </c>
+      <c r="M27" s="37"/>
       <c r="N27" s="37"/>
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
@@ -3830,7 +3755,7 @@
       <c r="R27" s="40"/>
       <c r="S27" s="38"/>
       <c r="T27" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="90" x14ac:dyDescent="0.25">
@@ -3844,10 +3769,10 @@
         <v>41</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="36"/>
@@ -3857,12 +3782,10 @@
         <v>55</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L28" s="37"/>
-      <c r="M28" s="37" t="s">
-        <v>55</v>
-      </c>
+      <c r="M28" s="37"/>
       <c r="N28" s="37"/>
       <c r="O28" s="37"/>
       <c r="P28" s="37"/>
@@ -3870,7 +3793,7 @@
       <c r="R28" s="40"/>
       <c r="S28" s="38"/>
       <c r="T28" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -18324,10 +18247,10 @@
         <v>21</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18335,83 +18258,83 @@
         <v>41</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19434,7 +19357,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B2" s="47" t="s">
         <v>43</v>
@@ -19442,7 +19365,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B3" s="47" t="s">
         <v>55</v>
@@ -20459,26 +20382,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20709,32 +20612,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6395DAD-5B77-46ED-9147-4C5A384B6E5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20751,4 +20649,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>